--- a/Pagos Eventuales realizados/04- ABRIL/Agentes a pagar 14.4.23.xlsx
+++ b/Pagos Eventuales realizados/04- ABRIL/Agentes a pagar 14.4.23.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Nro control</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>07/22</t>
+  </si>
+  <si>
+    <t>SANCHEZ RUIZ MELISSA</t>
+  </si>
+  <si>
+    <t>27804620</t>
+  </si>
+  <si>
+    <t>39267893</t>
+  </si>
+  <si>
+    <t>ZELTEINREICH MARTHA P.</t>
+  </si>
+  <si>
+    <t>62001645</t>
+  </si>
+  <si>
+    <t>39450090</t>
+  </si>
+  <si>
+    <t>MATIAZZO MARIANA BELEN</t>
+  </si>
+  <si>
+    <t>31739693</t>
+  </si>
+  <si>
+    <t>90072882</t>
+  </si>
+  <si>
+    <t>FOCHESATO CARRIZO MARIA L</t>
   </si>
 </sst>
 </file>
@@ -146,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +199,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -233,14 +269,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +618,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,34 +665,40 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="22">
+        <v>31579858</v>
+      </c>
+      <c r="D3" s="22">
+        <v>29050403</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="22">
         <v>25000</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -630,34 +706,40 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="22">
+        <v>31579858</v>
+      </c>
+      <c r="D6" s="22">
+        <v>29050403</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="22">
         <v>25000</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -665,159 +747,176 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="25">
         <v>30803640</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="25">
         <v>28377761</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="25">
         <v>60000</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>60000</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -867,7 +966,7 @@
       <c r="C26" s="6">
         <v>17236948</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>28442472</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -919,7 +1018,7 @@
       <c r="C28" s="7">
         <v>10936278</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -936,30 +1035,62 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7">
+        <v>39450090</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7">
+        <v>80000</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7">
+        <v>80000</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -969,7 +1100,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -979,7 +1110,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1024,34 +1155,66 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7">
+        <v>60000</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -1076,8 +1239,8 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1086,8 +1249,8 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1096,8 +1259,8 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -1106,8 +1269,8 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -1116,8 +1279,8 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -1126,8 +1289,8 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -1136,8 +1299,8 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -1146,8 +1309,8 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -1156,8 +1319,8 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -1166,8 +1329,8 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -1176,8 +1339,8 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
